--- a/dados/eaaudiodistribuidora.xlsx
+++ b/dados/eaaudiodistribuidora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:251116567#searchVariation=MLB27685629&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=5952b011-c0b5-43b5-a45f-d3c99a2ef129</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:251116567#searchVariation=MLB27685629&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=4e6473c6-e444-47a9-91a5-8a3ada784961</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:251116567#searchVariation=MLB24006449&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=5952b011-c0b5-43b5-a45f-d3c99a2ef129</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:251116567#searchVariation=MLB24006449&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=4e6473c6-e444-47a9-91a5-8a3ada784961</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251116567#searchVariation=MLB24154371&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=5952b011-c0b5-43b5-a45f-d3c99a2ef129</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251116567#searchVariation=MLB24154371&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=4e6473c6-e444-47a9-91a5-8a3ada784961</t>
         </is>
       </c>
     </row>
@@ -546,17 +582,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:251116567#searchVariation=MLB24834408&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=5952b011-c0b5-43b5-a45f-d3c99a2ef129</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:251116567#searchVariation=MLB24834408&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=4e6473c6-e444-47a9-91a5-8a3ada784961</t>
         </is>
       </c>
     </row>
@@ -571,17 +617,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251116567#searchVariation=MLB27687422&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=ab628761-03f6-4cdf-a301-1793096f5180</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251116567#searchVariation=MLB27687422&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=a82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
         </is>
       </c>
     </row>
@@ -596,17 +648,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251116567#searchVariation=MLB21392652&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=ab628761-03f6-4cdf-a301-1793096f5180</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251116567#searchVariation=MLB21392652&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=a82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
         </is>
       </c>
     </row>
@@ -621,17 +683,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:251116567#searchVariation=MLB21348561&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=ab628761-03f6-4cdf-a301-1793096f5180</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:251116567#searchVariation=MLB21348561&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=a82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
         </is>
       </c>
     </row>
@@ -646,17 +718,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:251116567#searchVariation=MLB21455208&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=ab628761-03f6-4cdf-a301-1793096f5180</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:251116567#searchVariation=MLB21455208&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=a82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
         </is>
       </c>
     </row>
@@ -671,17 +753,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1905524562-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab628761-03f6-4cdf-a301-1793096f5180</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1905524562-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
         </is>
       </c>
     </row>
@@ -696,17 +784,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1864448566-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab628761-03f6-4cdf-a301-1793096f5180</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1864448566-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
         </is>
       </c>
     </row>
@@ -721,17 +815,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3669683036-fonte-para-carro-e-bob-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab628761-03f6-4cdf-a301-1793096f5180</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3669683036-fonte-para-carro-e-bob-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
         </is>
       </c>
     </row>
@@ -746,17 +846,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2748747035-carregador-bateria-portatil-carromoto-12-volts-60a-jfa-f60-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab628761-03f6-4cdf-a301-1793096f5180</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2748747035-carregador-bateria-portatil-carromoto-12-volts-60a-jfa-f60-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
         </is>
       </c>
     </row>
@@ -771,17 +877,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858359636-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab628761-03f6-4cdf-a301-1793096f5180</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858359636-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
         </is>
       </c>
     </row>
@@ -796,17 +908,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311400167-kit-10-und-controle-longa-distncia-jfa-aqua-1200mts-branco-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab628761-03f6-4cdf-a301-1793096f5180</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3311400167-kit-10-und-controle-longa-distncia-jfa-aqua-1200mts-branco-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
         </is>
       </c>
     </row>
@@ -821,17 +939,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3055780148-kit-10-und-controle-longa-distncia-jfa-aqua-1200mts-preto-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Def850837-f349-485b-90de-4bbcff41f2a0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3055780148-kit-10-und-controle-longa-distncia-jfa-aqua-1200mts-preto-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d386aa0-aaa6-4ab4-bf29-1390e4b9d25f</t>
         </is>
       </c>
     </row>
@@ -846,17 +970,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751347185-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Def850837-f349-485b-90de-4bbcff41f2a0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2751347185-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d386aa0-aaa6-4ab4-bf29-1390e4b9d25f</t>
         </is>
       </c>
     </row>
@@ -871,17 +1005,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751337772-fonte-carregador-jfa-120a-bivolt-storm-plus-com-medidor-cca-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Def850837-f349-485b-90de-4bbcff41f2a0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2751337772-fonte-carregador-jfa-120a-bivolt-storm-plus-com-medidor-cca-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d386aa0-aaa6-4ab4-bf29-1390e4b9d25f</t>
         </is>
       </c>
     </row>
@@ -896,17 +1040,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751414420-fonte-carregador-jfa-bob-storm-200a-12v-144v-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Def850837-f349-485b-90de-4bbcff41f2a0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2751414420-fonte-carregador-jfa-bob-storm-200a-12v-144v-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d386aa0-aaa6-4ab4-bf29-1390e4b9d25f</t>
         </is>
       </c>
     </row>
@@ -921,17 +1075,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3669694824-fonte-jfa-storm-40a-sci-medidor-cca-slim-flutuaco-bivolt-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Def850837-f349-485b-90de-4bbcff41f2a0</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3669694824-fonte-jfa-storm-40a-sci-medidor-cca-slim-flutuaco-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d386aa0-aaa6-4ab4-bf29-1390e4b9d25f</t>
         </is>
       </c>
     </row>
@@ -946,17 +1110,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482181479-fonte-automotiva-200a-jfa-storm-monovolt-220volts-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb6bba24-5b48-4627-8cbf-6781c7424bd2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482181479-fonte-automotiva-200a-jfa-storm-monovolt-220volts-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a063f66-cfc5-4e11-94eb-bafab57c30c8</t>
         </is>
       </c>
     </row>
@@ -971,17 +1145,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858350649-controle-longa-distancia-jfa-k600-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb6bba24-5b48-4627-8cbf-6781c7424bd2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858350649-controle-longa-distancia-jfa-k600-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a063f66-cfc5-4e11-94eb-bafab57c30c8</t>
         </is>
       </c>
     </row>
@@ -996,17 +1176,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858367956-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb6bba24-5b48-4627-8cbf-6781c7424bd2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858367956-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a063f66-cfc5-4e11-94eb-bafab57c30c8</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1207,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449432451-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dfb6bba24-5b48-4627-8cbf-6781c7424bd2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3449432451-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a063f66-cfc5-4e11-94eb-bafab57c30c8</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1242,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3504303801-fonte-automotiva-jfa-200a-slim-voltimetro-digital-mono-220v-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D20fbd8b7-b810-4f80-bbcb-794a7d35ef7a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3504303801-fonte-automotiva-jfa-200a-slim-voltimetro-digital-mono-220v-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5df2c3b5-d518-4545-8e3b-dba7ea42ba63</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1277,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1905546202-carregador-bateria-portatil-carromoto-12-volts-60a-jfa-f60-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D20fbd8b7-b810-4f80-bbcb-794a7d35ef7a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1905546202-carregador-bateria-portatil-carromoto-12-volts-60a-jfa-f60-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5df2c3b5-d518-4545-8e3b-dba7ea42ba63</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1308,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751433849-fonte-carregador-automotiva-200a-jfa-storm-monovolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D46fbac3f-db36-49c6-bffe-b6ae02c1e896</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2751433849-fonte-carregador-automotiva-200a-jfa-storm-monovolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D662d4d29-40b6-4c80-bade-ac3c16f511ba</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1343,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858335281-controle-de-som-automotivo-longa-distancia-k600-jfa-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D46fbac3f-db36-49c6-bffe-b6ae02c1e896</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858335281-controle-de-som-automotivo-longa-distancia-k600-jfa-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D662d4d29-40b6-4c80-bade-ac3c16f511ba</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1374,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1864452296-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D46fbac3f-db36-49c6-bffe-b6ae02c1e896</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1864452296-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D662d4d29-40b6-4c80-bade-ac3c16f511ba</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1405,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2836473984-fonte-carregador-jfa-120a-bivolt-storm-plus-com-medidor-cca-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd981bcfd-886c-43bd-a54d-5267e1074a80</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2836473984-fonte-carregador-jfa-120a-bivolt-storm-plus-com-medidor-cca-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84a44aa1-95e0-4356-bdfc-9fdaa3f5042a</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1440,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751398159-fonte-carregador-automotiva-200a-jfa-storm-monovolt-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd981bcfd-886c-43bd-a54d-5267e1074a80</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2751398159-fonte-carregador-automotiva-200a-jfa-storm-monovolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84a44aa1-95e0-4356-bdfc-9fdaa3f5042a</t>
         </is>
       </c>
     </row>

--- a/dados/eaaudiodistribuidora.xlsx
+++ b/dados/eaaudiodistribuidora.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>95</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:251116567#searchVariation=MLB27685629&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=4e6473c6-e444-47a9-91a5-8a3ada784961</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:251116567#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b5f8cd-cf04-4beb-a8a6-a6fbe4d4e8dd</t>
         </is>
       </c>
     </row>
@@ -507,19 +507,15 @@
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>815.66</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -532,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:251116567#searchVariation=MLB24006449&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=4e6473c6-e444-47a9-91a5-8a3ada784961</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:251116567#searchVariation=MLB24006449&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b5f8cd-cf04-4beb-a8a6-a6fbe4d4e8dd</t>
         </is>
       </c>
     </row>
@@ -542,14 +538,14 @@
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>754.4400000000001</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -567,7 +563,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251116567#searchVariation=MLB24154371&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=4e6473c6-e444-47a9-91a5-8a3ada784961</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:251116567#searchVariation=MLB24154371&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b5f8cd-cf04-4beb-a8a6-a6fbe4d4e8dd</t>
         </is>
       </c>
     </row>
@@ -577,14 +573,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>657.1900000000001</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -602,7 +598,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:251116567#searchVariation=MLB24834408&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=4e6473c6-e444-47a9-91a5-8a3ada784961</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:251116567#searchVariation=MLB24834408&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=37b5f8cd-cf04-4beb-a8a6-a6fbe4d4e8dd</t>
         </is>
       </c>
     </row>
@@ -612,13 +608,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>92.5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -633,7 +629,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251116567#searchVariation=MLB27687422&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=a82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:251116567#searchVariation=MLB27687422&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=ffb0444e-6817-4749-8322-208e537ec568</t>
         </is>
       </c>
     </row>
@@ -643,14 +639,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>667.79</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -668,7 +664,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251116567#searchVariation=MLB21392652&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=a82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:251116567#searchVariation=MLB21392652&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=ffb0444e-6817-4749-8322-208e537ec568</t>
         </is>
       </c>
     </row>
@@ -678,14 +674,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>845.87</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -703,7 +699,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:251116567#searchVariation=MLB21348561&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=a82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:251116567#searchVariation=MLB21348561&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=ffb0444e-6817-4749-8322-208e537ec568</t>
         </is>
       </c>
     </row>
@@ -713,14 +709,14 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>519.39</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -738,23 +734,23 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:251116567#searchVariation=MLB21455208&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=a82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:251116567#searchVariation=MLB21455208&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=ffb0444e-6817-4749-8322-208e537ec568</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>79</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>100.98</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -769,23 +765,23 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1905524562-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1864448566-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dffb0444e-6817-4749-8322-208e537ec568</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Filtro Anti-ruido Jfa Com Blindagem Eletromagnética 20/20k</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>79</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -800,25 +796,29 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1864448566-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1905524562-filtro-anti-ruido-jfa-com-blindagem-eletromagnetica-2020k-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dffb0444e-6817-4749-8322-208e537ec568</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Para Carro E Bob Carregador Jfa Storm 40a Bivolt - 12v</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>423.99</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>Carregador Bateria Portatil Carro/moto 12 Volts 60a Jfa F60</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>549.6</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -831,23 +831,23 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3669683036-fonte-para-carro-e-bob-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2748747035-carregador-bateria-portatil-carromoto-12-volts-60a-jfa-f60-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dffb0444e-6817-4749-8322-208e537ec568</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Carregador Bateria Portatil Carro/moto 12 Volts 60a Jfa F60</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>549.6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Alcance 1200 Mt </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>75</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -857,28 +857,28 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2748747035-carregador-bateria-portatil-carromoto-12-volts-60a-jfa-f60-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1858359636-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dffb0444e-6817-4749-8322-208e537ec568</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Alcance 1200 Mt </t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>75</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Kit 10 Und Controle Longa Distância Jfa Aqua 1200mts Branco</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>677.99</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -893,23 +893,23 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858359636-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311400167-kit-10-und-controle-longa-distncia-jfa-aqua-1200mts-branco-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dffb0444e-6817-4749-8322-208e537ec568</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kit 10 Und Controle Longa Distância Jfa Aqua 1200mts Branco</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>677.99</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t xml:space="preserve">Controle De Som Automotivo Longa Distancia K600 Jfa  </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>66.2</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3311400167-kit-10-und-controle-longa-distncia-jfa-aqua-1200mts-branco-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da82916f7-7fb3-4547-a6a8-dbb734ab78cd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1858335281-controle-de-som-automotivo-longa-distancia-k600-jfa-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0d8885be-2c46-49c3-9fe8-7f16a5cc64fd</t>
         </is>
       </c>
     </row>
@@ -934,13 +934,13 @@
           <t xml:space="preserve">Kit 10 Und Controle Longa Distância Jfa Aqua 1200mts Preto </t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>769.8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3055780148-kit-10-und-controle-longa-distncia-jfa-aqua-1200mts-preto-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d386aa0-aaa6-4ab4-bf29-1390e4b9d25f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3055780148-kit-10-und-controle-longa-distncia-jfa-aqua-1200mts-preto-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61f8ead8-dbe9-45db-ad9e-d9688376e9b1</t>
         </is>
       </c>
     </row>
@@ -965,14 +965,14 @@
           <t>Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  Som Paredão</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>731.39</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -990,7 +990,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751347185-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d386aa0-aaa6-4ab4-bf29-1390e4b9d25f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2751347185-fonte-carregador-jfa-bob-storm-200a-12v-144v-som-paredo-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61f8ead8-dbe9-45db-ad9e-d9688376e9b1</t>
         </is>
       </c>
     </row>
@@ -1000,14 +1000,14 @@
           <t>Fonte Carregador Jfa 120a Bivolt Storm Plus Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>710.1900000000001</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751337772-fonte-carregador-jfa-120a-bivolt-storm-plus-com-medidor-cca-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d386aa0-aaa6-4ab4-bf29-1390e4b9d25f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2751337772-fonte-carregador-jfa-120a-bivolt-storm-plus-com-medidor-cca-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61f8ead8-dbe9-45db-ad9e-d9688376e9b1</t>
         </is>
       </c>
     </row>
@@ -1035,14 +1035,14 @@
           <t xml:space="preserve">Fonte Carregador Jfa Bob Storm 200a 12v 14,4v  </t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>731.39</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751414420-fonte-carregador-jfa-bob-storm-200a-12v-144v-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d386aa0-aaa6-4ab4-bf29-1390e4b9d25f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2751414420-fonte-carregador-jfa-bob-storm-200a-12v-144v-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61f8ead8-dbe9-45db-ad9e-d9688376e9b1</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1070,14 @@
           <t>Fonte Jfa Storm 40a Sci Medidor Cca Slim Flutuação Bivolt</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>455.79</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1095,29 +1095,25 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3669694824-fonte-jfa-storm-40a-sci-medidor-cca-slim-flutuaco-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d386aa0-aaa6-4ab4-bf29-1390e4b9d25f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3669694824-fonte-jfa-storm-40a-sci-medidor-cca-slim-flutuaco-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D61f8ead8-dbe9-45db-ad9e-d9688376e9b1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 200a Jfa Storm Monovolt (220volts)</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>775.38</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t>Fonte Para Carro E Bob Carregador Jfa Storm 40a Bivolt - 12v</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>423.99</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1130,23 +1126,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482181479-fonte-automotiva-200a-jfa-storm-monovolt-220volts-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a063f66-cfc5-4e11-94eb-bafab57c30c8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3669683036-fonte-para-carro-e-bob-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4a6d942-b88e-4091-9849-99e5984eca4d</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa K600 </t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>59</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Fonte Automotiva 200a Jfa Storm Monovolt (220volts)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>775.38</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1161,23 +1157,23 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858350649-controle-longa-distancia-jfa-k600-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a063f66-cfc5-4e11-94eb-bafab57c30c8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482181479-fonte-automotiva-200a-jfa-storm-monovolt-220volts-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4a6d942-b88e-4091-9849-99e5984eca4d</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Alcance 1200 Mt </t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>65.33</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t xml:space="preserve">Controle Longa Distancia Jfa K600 </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>59</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -1192,29 +1188,25 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858367956-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a063f66-cfc5-4e11-94eb-bafab57c30c8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1858350649-controle-longa-distancia-jfa-k600-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4a6d942-b88e-4091-9849-99e5984eca4d</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt </t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>717.72</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Controle Longa Distancia Jfa K1200 Alcance 1200 Mt </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>65.33</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1227,23 +1219,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3449432451-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a063f66-cfc5-4e11-94eb-bafab57c30c8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1858367956-controle-longa-distancia-jfa-k1200-alcance-1200-mt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4a6d942-b88e-4091-9849-99e5984eca4d</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Automotiva Jfa 200a Slim Voltímetro Digital Mono 220v </t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>815.66</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
+          <t xml:space="preserve">Fonte Carregador Automotivo Jfa 200a Storm Lite 12v Bivolt </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>717.72</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1257,28 +1249,28 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3504303801-fonte-automotiva-jfa-200a-slim-voltimetro-digital-mono-220v-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5df2c3b5-d518-4545-8e3b-dba7ea42ba63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3449432451-fonte-carregador-automotivo-jfa-200a-storm-lite-12v-bivolt-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc4a6d942-b88e-4091-9849-99e5984eca4d</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Carregador Bateria Portatil Carro/moto 12 Volts 60a Jfa F60</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>588.9</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t xml:space="preserve">Fonte Automotiva Jfa 200a Slim Voltímetro Digital Mono 220v </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>815.66</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -1293,23 +1285,23 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1905546202-carregador-bateria-portatil-carromoto-12-volts-60a-jfa-f60-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5df2c3b5-d518-4545-8e3b-dba7ea42ba63</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3504303801-fonte-automotiva-jfa-200a-slim-voltimetro-digital-mono-220v-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9062d138-a906-4c2d-9cfd-874bee3013e6</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva 200a Jfa Storm Monovolt</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>775.38</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
+          <t>Carregador Bateria Portatil Carro/moto 12 Volts 60a Jfa F60</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>588.9</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1323,28 +1315,28 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751433849-fonte-carregador-automotiva-200a-jfa-storm-monovolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D662d4d29-40b6-4c80-bade-ac3c16f511ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1905546202-carregador-bateria-portatil-carromoto-12-volts-60a-jfa-f60-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9062d138-a906-4c2d-9cfd-874bee3013e6</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle De Som Automotivo Longa Distancia K600 Jfa  </t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+          <t>Fonte Carregador Automotiva 200a Jfa Storm Monovolt</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>775.38</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
@@ -1354,12 +1346,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858335281-controle-de-som-automotivo-longa-distancia-k600-jfa-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D662d4d29-40b6-4c80-bade-ac3c16f511ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2751433849-fonte-carregador-automotiva-200a-jfa-storm-monovolt-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D89f50234-c341-48a6-b185-9770d3bf1019</t>
         </is>
       </c>
     </row>
@@ -1369,13 +1361,13 @@
           <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>96</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1390,7 +1382,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1864452296-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D662d4d29-40b6-4c80-bade-ac3c16f511ba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1864452296-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D89f50234-c341-48a6-b185-9770d3bf1019</t>
         </is>
       </c>
     </row>
@@ -1400,14 +1392,14 @@
           <t>Fonte Carregador Jfa 120a Bivolt Storm Plus Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>667.79</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1425,7 +1417,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2836473984-fonte-carregador-jfa-120a-bivolt-storm-plus-com-medidor-cca-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84a44aa1-95e0-4356-bdfc-9fdaa3f5042a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2836473984-fonte-carregador-jfa-120a-bivolt-storm-plus-com-medidor-cca-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54b01e2a-8beb-4030-a254-43bfcad3d8ff</t>
         </is>
       </c>
     </row>
@@ -1435,13 +1427,13 @@
           <t>Fonte Carregador Automotiva 200a Jfa Storm Monovolt</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>815.67</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
@@ -1456,7 +1448,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2751398159-fonte-carregador-automotiva-200a-jfa-storm-monovolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D84a44aa1-95e0-4356-bdfc-9fdaa3f5042a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2751398159-fonte-carregador-automotiva-200a-jfa-storm-monovolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54b01e2a-8beb-4030-a254-43bfcad3d8ff</t>
         </is>
       </c>
     </row>
